--- a/src/testCase/c_useCase_file/Fiberbook/设置变量/二维单元设计参数.xlsx
+++ b/src/testCase/c_useCase_file/Fiberbook/设置变量/二维单元设计参数.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="控件属性已经操作方法" sheetId="2" r:id="rId1"/>
     <sheet name="测试一" sheetId="4" r:id="rId2"/>
+    <sheet name="测试二" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -70,9 +71,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
+窗口一
+窗口二
+窗口三</t>
         </r>
       </text>
     </comment>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +318,210 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例的唯一标识</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+测试用例说明</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于操作菜单栏</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="140">
   <si>
     <t>唯一标识</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -384,9 +588,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
-  </si>
-  <si>
     <t>控件类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -395,10 +596,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作控件后等待时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -419,31 +616,110 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>截面尺寸上限文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角度设置文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局安全系数文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESPRINT复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRESS复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRAIN复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出到include文件地址文本框</t>
+    <t>所操作控件窗口</t>
+  </si>
+  <si>
+    <t>所有的控件操作一遍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚度上限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合材料表第一行双击弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合材料表第一行双击弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比可变复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义弹窗--优化变量复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义弹窗--与其他铺层厚度关联复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义弹窗--CMULT文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚度下限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合材料复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属材料复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合材料表第二行双击弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合材料表第三行双击弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合材料表第四行双击弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不共享复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有选中单元共享复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性卡片起始ID文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出到include文本框</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -455,15 +731,142 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>优化-&gt;优化设置-&gt;全局设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的控件都操作一遍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qjsz001</t>
+    <t>坐标--双击--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--双击--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--双击--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--双击--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100；40；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100；60；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100；80；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100；100；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit2</t>
+  </si>
+  <si>
+    <t>RadioButton1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton2</t>
+  </si>
+  <si>
+    <t>CheckBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton5</t>
+  </si>
+  <si>
+    <t>Edit3</t>
+  </si>
+  <si>
+    <t>Edit3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Dsj001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个被测模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化-&gt;优化设置-&gt;设计变量-&gt;二维单元设计参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计变量--二维单元设计参数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -475,23 +878,116 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>默认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息窗口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整个被测模块</t>
+    <t>二维单元设计参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比可变复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--三击--文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比可变不勾选--第一行三击文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比可变不勾选--第二行三击文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比可变不勾选--第三行三击文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比可变不勾选--第四行三击文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不勾选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元][Button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示弹窗；信息窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desvar_2d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同名Include文件desvar_2d已存在。是否继续?；开始创建二维变量…二维变量创建完毕, 新建DESVAR个数为5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Dsj002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义弹窗--上限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义弹窗--C0文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义弹窗--系数文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义弹窗--减号按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义弹窗--DLINK文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义弹窗--铺层比下限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义弹窗--铺层比上限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义弹窗--确定按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义弹窗--取消按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义弹窗--下限文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>文本框</t>
@@ -502,38 +998,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RESPRINT复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复选框</t>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRESS复选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出到include文件地址文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出到include文件Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit1</t>
+    <t>铺层厚度/铺层比定义弹窗--其他铺层下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义弹窗--加号按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -541,7 +1014,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Edit3</t>
+    <t>RadioButton2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit5</t>
+  </si>
+  <si>
+    <t>ComboBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -553,31 +1057,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化设置--全局设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESPRINTCheckBox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRESSCheckBox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STRAINCheckBox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>global</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始创建全局设定…全局设置创建成功!</t>
+    <t>提示弹窗；信息窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ply0 = 1.00 + 1.00*(1.00*Ply4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维单元设计参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层厚度/铺层比定义</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +1093,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,13 +1145,45 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -673,7 +1213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -720,6 +1260,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,341 +1586,1124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="2" max="21" width="9" style="3"/>
+    <col min="22" max="36" width="10.375" style="3" customWidth="1"/>
+    <col min="37" max="46" width="13" style="3" customWidth="1"/>
+    <col min="47" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="U1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="W1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="I2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="S2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>45</v>
+      <c r="B4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="12" t="s">
+    <row r="5" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>55</v>
       </c>
+      <c r="G5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ5" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>48</v>
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12">
+        <v>0</v>
+      </c>
+      <c r="S6" s="12">
+        <v>0</v>
+      </c>
+      <c r="T6" s="12">
+        <v>0</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0</v>
+      </c>
+      <c r="V6" s="12">
+        <v>0</v>
+      </c>
+      <c r="W6" s="12">
+        <v>0</v>
+      </c>
+      <c r="X6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="12">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>46</v>
+      <c r="B7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ7" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
+      <c r="B8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="J9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ9" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="G10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>56</v>
+      <c r="H10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ10" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:36" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1370,10 +2714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.6" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1381,182 +2725,245 @@
     <col min="1" max="1" width="8.125" style="10" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="7" customWidth="1"/>
     <col min="3" max="3" width="8.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="8" customWidth="1"/>
-    <col min="6" max="9" width="8.125" style="8" customWidth="1"/>
-    <col min="10" max="13" width="8.125" style="10" customWidth="1"/>
-    <col min="14" max="20" width="9" style="10"/>
-    <col min="21" max="21" width="10.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="10" customWidth="1"/>
+    <col min="5" max="11" width="9" style="10"/>
+    <col min="12" max="12" width="10.75" style="10" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="14.25" style="8" customWidth="1"/>
+    <col min="15" max="18" width="8.125" style="8" customWidth="1"/>
+    <col min="19" max="21" width="8.125" style="10" customWidth="1"/>
     <col min="22" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="V1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>13</v>
+      <c r="AD1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" s="6" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="11">
-        <v>15</v>
-      </c>
-      <c r="E2" s="11">
-        <v>50</v>
-      </c>
-      <c r="F2" s="11">
+        <v>83</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="14">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11">
         <v>1.5</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="14">
-        <v>5</v>
+      <c r="N2" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="14"/>
+        <v>87</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="W2" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="X2" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="Y2" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>1111</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:32" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
     </row>
-    <row r="4" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1564,4 +2971,188 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="6.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="189" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="11">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2">
+        <v>0.02</v>
+      </c>
+      <c r="N2">
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="T2">
+        <v>1.5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" t="s">
+        <v>135</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="X2">
+        <v>0.2</v>
+      </c>
+      <c r="Y2">
+        <v>0.7</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>